--- a/docs/LANG.xlsx
+++ b/docs/LANG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\HSO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F72335-D380-4FE7-92B0-D33A68761A7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0198DE4-5010-4329-8F5F-09182EBCFB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1060" windowWidth="17117" windowHeight="13476" xr2:uid="{BC9F9AC6-E6B5-4E26-8DC4-44951FDC5054}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="13707" xr2:uid="{BC9F9AC6-E6B5-4E26-8DC4-44951FDC5054}"/>
   </bookViews>
   <sheets>
     <sheet name="instances" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -611,9 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1225A6CD-6A93-47B6-A587-BDE14DA43CA4}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
